--- a/medicine/Enfance/Reynald_Cantin/Reynald_Cantin.xlsx
+++ b/medicine/Enfance/Reynald_Cantin/Reynald_Cantin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reynald Cantin, né à Québec le 18 février 1946, est un écrivain québécois, auteur de nombreux ouvrages de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après 35 années d'enseignement du français au secondaire, Reynald Cantin prend sa retraite en juin 2005 afin de se consacrer à ce qui est, depuis 1985, son passe-temps favori : l’écriture pour la jeunesse. En effet, inspiré par ses élèves et ses propres enfants, il publie des histoires audacieuses alliant fantaisie, émotions et action.
 Il publie d’abord des romans pour les adolescents et les jeunes adultes chez Québec-Amérique, avant de s'orienter vers les ouvrages pour les plus jeunes publiés chez FouLire. Son engagement est de toujours écrire des récits dont les personnages deviennent meilleurs. Son dernier roman, Les bulles, chez Boréal Junior, en est une des plus belles illustrations.
@@ -546,12 +560,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Roman pour tous
-Les tribulations d'une adolescente au secondaire
-Ève Paradis (Québec/Amérique - 2005)
-Littérature jeunesse
-Ouvrages pour les 7-9 ans
-Les mésaventures d'une fantôme débutante, chez FouLire
+          <t>Roman pour tous</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les tribulations d'une adolescente au secondaire
+Ève Paradis (Québec/Amérique - 2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Reynald_Cantin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reynald_Cantin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ouvrages pour les 7-9 ans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les mésaventures d'une fantôme débutante, chez FouLire
 Frissella frappe un mur (2004)
 Frissella ne se voit plus aller (2005)
 Frissellaaahhh! (2006)
@@ -560,14 +616,90 @@
 Méchante Frissella! (2009)
 Frissella s'évanouit (2010)
 Piston, un amour de dragon (2009)
-Rimette, une fée en mille miettes (2011)
-Ouvrages pour les 9-11 ans
-Les mésaventures d'un vrai p'tit malcommode - chez FouLire
+Rimette, une fée en mille miettes (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Reynald_Cantin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reynald_Cantin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ouvrages pour les 9-11 ans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les mésaventures d'un vrai p'tit malcommode - chez FouLire
 Yohann Volume 1 (2018)
 Yohann Volume 2 (2019)
-Yohann Volume 3 (2020)
-Ouvrages pour les 10-12 ans
-La Lecture du diable (Québec/Amérique - 1994)
+Yohann Volume 3 (2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Reynald_Cantin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reynald_Cantin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ouvrages pour les 10-12 ans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Lecture du diable (Québec/Amérique - 1994)
 Mes parents sont gentils, mais tellement peureux (FouLire - 2009)
 Mon grand-père est gentil, mais tellement flyé (FouLire - 2014)
 Les bulles (Boréal Junior - 2021)</t>
